--- a/SKCustoms.WebApi/Content/Templete/Layout.xlsx
+++ b/SKCustoms.WebApi/Content/Templete/Layout.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6">
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>车牌号</t>
     </r>
     <r>
@@ -33,6 +26,22 @@
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <charset val="134"/>
+      </rPr>
+      <t>*</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>行政通道</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
       </rPr>
       <t>*</t>
     </r>
@@ -54,14 +63,15 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +85,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -86,6 +103,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -93,21 +117,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -115,55 +125,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -175,9 +139,54 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,6 +201,30 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -200,7 +233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,32 +241,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -245,31 +263,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -281,19 +377,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -305,127 +437,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -454,6 +472,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -465,15 +501,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,9 +531,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -525,17 +554,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -544,150 +562,153 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
@@ -699,13 +720,19 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1061,44 +1088,45 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18" customWidth="1"/>
-    <col min="2" max="2" width="25.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
+    <col min="2" max="2" width="18" customWidth="1"/>
+    <col min="3" max="3" width="25.125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="25.125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
-      <formula1>"一次,无数次"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D$1:D$1048576">
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E$1:E$1048576">
       <formula1>"出场控制,进场控制,进出场控制"</formula1>
     </dataValidation>
   </dataValidations>
